--- a/N3FULLOPTIONSfix.xlsx
+++ b/N3FULLOPTIONSfix.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red\Downloads\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4662DAD6-B4A7-4D95-AF3F-33CCBDEABD47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA110E20-370B-450D-A263-B7BAE5882E6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4920" xr2:uid="{837F86DD-D087-4740-86D8-6099F227768E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4920" activeTab="1" xr2:uid="{837F86DD-D087-4740-86D8-6099F227768E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="984">
   <si>
     <t>～ てしょうがない</t>
   </si>
@@ -4593,6 +4594,48 @@
 →　Không phải cứ gầy là thể lực yếu.
 ④　手紙てがみがしばらく来こないからといって、病気びょうきだとは限かぎらないよ。
 →　Cho dù đã lâu thư không tới, cũng không hẳn là cậu ấy bị bệnh.</t>
+  </si>
+  <si>
+    <t>Phân biệt そう Và げ</t>
+  </si>
+  <si>
+    <t>Trông Có Vẻ…</t>
+  </si>
+  <si>
+    <t>Trong nhiều trường hợp, cách sử dụng「そう」và「げ」là hầu như không khác nhau nhiều. Nhưng nếu đi sâu, ta có thể thấy một 3 điểm khác nhau rất nhỏ như sau: 
+①　「そう」mang tính văn nói nhiều hơn so với 「げ」
+Mặc dù cả 「そう」và「げ」đều sử dụng được trong văn nói, nhưng 「そう」mang tính văn nói nhiều hơn so với 「げ」.
+②　「そう」Biểu thị trạng thái rõ ràng hơn 「げ」
+Cả 2 đều diễn tả trạng thái “trông có vẻ”, “nhìn có vẻ” nhưng「そう」biểu thị trạng thái đó và mình cảm nhận được trạng thái đó rõ ràng, chắc chắn hơn qua hành động, hành vi, thái độ của người/vật đó. Trong khi đó「げ」cho ta thấy trạng thái chưa rõ ràng lắm, thường mình cảm nhận được trạng thái đó qua cảm nhận trực quan và mình phán đoán như thế thông qua không khí, cảm giác khi đó.</t>
+  </si>
+  <si>
+    <t>①　木村きむらさんは父ちちに死しなれてから、いつも悲かなしそうな顔かおをしている。
+→　Anh Kimura kể từ sau khi ba mất, mặt lúc nào trông cũng buồn bã.
+②　木村きむらさんは父ちちに死しなれてから、いつも悲かなしげな顔かおをしている。
+→　Anh Kimura kể từ sau khi ba mất, mặt lúc nào trông cũng buồn buồn sao ấy.</t>
+  </si>
+  <si>
+    <t>～ もしないで</t>
+  </si>
+  <si>
+    <t>Hoàn toàn không …</t>
+  </si>
+  <si>
+    <t>Động từ nhóm 1 &amp; 2: V ます + もしないで
+Động từ nhóm 3: V します + もしないで</t>
+  </si>
+  <si>
+    <t>①　Mẫu câu này mang ý nghĩa là “hoàn toàn không …” (全まったく～ない), thường biểu hiện thái độ bất mãn của người nói.</t>
+  </si>
+  <si>
+    <t>①　食事しょくじもしないで ゲーム ばかりしていると、病気びょうきになるよ。
+→　Chẳng ăn uống gì toàn chơi game như thế thì thế nào cũng ốm đấy.
+②　A:失敗しっぱいしたなあ。この シャツ、ちょっと派手はですぎた。
+－B: よく見みもしないで買かうからよ。
+→　A: Không được rồi. Cái áo này sặc sỡ quá.
+ー B: Toàn không thèm nhìn mà cứ mua nên bị thế đấy.
+③　できるかどうか、努力どりょくもしないで、最初さいしょからあきらめるんですか。
+→　Có làm được hay không, chưa nỗ lực gì cả mà đã từ bỏ luôn à?</t>
   </si>
 </sst>
 </file>
@@ -4980,8 +5023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA07A6C6-D441-4E89-A43E-07D77E90819F}">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8361,4 +8404,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9589CFCA-0E62-4768-A4A9-6E68461F9AB3}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>